--- a/mapping/CCS DATA EXCHANGE ORG UNITS.xlsx
+++ b/mapping/CCS DATA EXCHANGE ORG UNITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asamuel/Projects/ccs-datim-data-import/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197B259-6F42-5E42-99DB-32667E4A3AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B4DFB3-FE6E-2F4B-950A-EB2C0327CAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="30220" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8160" yWindow="500" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="769">
   <si>
     <t>regionorcountry_code</t>
   </si>
@@ -2327,13 +2327,16 @@
   </si>
   <si>
     <t>foPEfoFVknQ</t>
+  </si>
+  <si>
+    <t>kZka73xT1AZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2363,6 +2366,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2403,7 +2412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2414,6 +2423,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4109,15 +4119,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J206"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J46" sqref="F46:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="16.1640625" customWidth="1"/>
+    <col min="1" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="7" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4153,1227 +4168,1211 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>1090202</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1090210</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>1090205</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>36</v>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1090206</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>41</v>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1090208</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>46</v>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1090216</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>51</v>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1090212</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>58</v>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1090213</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>62</v>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1090214</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>74</v>
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1090207</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>79</v>
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1090215</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>84</v>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1090307</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>89</v>
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1090304</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>94</v>
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1090312</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>101</v>
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1090317</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>106</v>
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1090306</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1090301</v>
+      </c>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="4"/>
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1090313</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>119</v>
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1090308</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>124</v>
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1090305</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="4">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>1090321</v>
+      </c>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>1090319</v>
+      </c>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2">
+        <v>1090320</v>
+      </c>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="4">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>148</v>
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1090311</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>155</v>
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1090309</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>160</v>
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1090302</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="4">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>165</v>
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1090318</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>170</v>
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1090315</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="4">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>175</v>
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1090310</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="4">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2">
+        <v>1090316</v>
+      </c>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4" t="s">
-        <v>183</v>
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1090314</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="4">
-        <v>5</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>185</v>
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1090303</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4">
-        <v>5</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4" t="s">
-        <v>187</v>
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1090605</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="4">
-        <v>5</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1090624</v>
+      </c>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="4">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1090608</v>
+      </c>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="4">
-        <v>5</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4" t="s">
-        <v>193</v>
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1090603</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="4">
-        <v>5</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4" t="s">
-        <v>195</v>
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1090615</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -5393,19 +5392,19 @@
         <v>197</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="I41" s="2">
-        <v>1090605</v>
+        <v>1090618</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -5425,16 +5424,14 @@
         <v>197</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>204</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="2">
-        <v>1090624</v>
+        <v>1090626</v>
       </c>
       <c r="J42" s="2"/>
     </row>
@@ -5449,26 +5446,24 @@
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="I43" s="2">
-        <v>1090307</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>1090602</v>
+      </c>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -5481,24 +5476,26 @@
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>213</v>
+        <v>346</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>214</v>
+        <v>347</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>215</v>
+        <v>348</v>
       </c>
       <c r="I44" s="2">
-        <v>1090910</v>
-      </c>
-      <c r="J44" s="2"/>
+        <v>1090606</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -5511,25 +5508,25 @@
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="I45" s="2">
-        <v>1091206</v>
+        <v>1090600</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>221</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -5549,18 +5546,20 @@
         <v>197</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="I46" s="2">
-        <v>1090608</v>
-      </c>
-      <c r="J46" s="2"/>
+        <v>1090617</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -5573,25 +5572,25 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>225</v>
+        <v>390</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>226</v>
+        <v>391</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>227</v>
+        <v>392</v>
       </c>
       <c r="I47" s="2">
-        <v>1090908</v>
+        <v>1090614</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>228</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5605,25 +5604,25 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>229</v>
+        <v>412</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>230</v>
+        <v>413</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>231</v>
+        <v>414</v>
       </c>
       <c r="I48" s="2">
-        <v>1091217</v>
+        <v>1090616</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>232</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -5637,20 +5636,26 @@
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>235</v>
+        <v>443</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1090620</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -5669,19 +5674,19 @@
         <v>197</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>237</v>
+        <v>469</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>239</v>
+        <v>471</v>
       </c>
       <c r="I50" s="2">
-        <v>1090603</v>
+        <v>1090613</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>240</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -5695,25 +5700,25 @@
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>241</v>
+        <v>485</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>242</v>
+        <v>486</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>243</v>
+        <v>487</v>
       </c>
       <c r="I51" s="2">
-        <v>1090304</v>
+        <v>1090625</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>244</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -5727,25 +5732,25 @@
         <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>245</v>
+        <v>500</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>246</v>
+        <v>501</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>247</v>
+        <v>502</v>
       </c>
       <c r="I52" s="2">
-        <v>1090312</v>
+        <v>1090622</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>248</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5765,19 +5770,19 @@
         <v>197</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>249</v>
+        <v>525</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>250</v>
+        <v>526</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>251</v>
+        <v>527</v>
       </c>
       <c r="I53" s="2">
-        <v>1090615</v>
+        <v>1090601</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>252</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -5791,25 +5796,25 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>253</v>
+        <v>538</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>254</v>
+        <v>539</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>255</v>
+        <v>540</v>
       </c>
       <c r="I54" s="2">
-        <v>1090317</v>
+        <v>1090610</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>256</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -5829,19 +5834,19 @@
         <v>197</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>257</v>
+        <v>553</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>258</v>
+        <v>554</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>259</v>
+        <v>555</v>
       </c>
       <c r="I55" s="2">
-        <v>1090618</v>
+        <v>1090621</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>260</v>
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -5861,16 +5866,20 @@
         <v>197</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>261</v>
+        <v>605</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>607</v>
+      </c>
       <c r="I56" s="2">
-        <v>1090626</v>
-      </c>
-      <c r="J56" s="2"/>
+        <v>1090609</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -5883,26 +5892,22 @@
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>265</v>
+        <v>625</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="H57" s="2"/>
       <c r="I57" s="2">
-        <v>1090715</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>268</v>
-      </c>
+        <v>1090627</v>
+      </c>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
@@ -5915,26 +5920,24 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>269</v>
+        <v>692</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>270</v>
+        <v>693</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>271</v>
+        <v>694</v>
       </c>
       <c r="I58" s="2">
-        <v>1090911</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>272</v>
-      </c>
+        <v>1090612</v>
+      </c>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
@@ -5947,22 +5950,20 @@
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>275</v>
+        <v>702</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="H59" s="2"/>
       <c r="I59" s="2">
-        <v>1091108</v>
+        <v>1090604</v>
       </c>
       <c r="J59" s="2"/>
     </row>
@@ -5977,25 +5978,25 @@
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>278</v>
+        <v>712</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>279</v>
+        <v>713</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>280</v>
+        <v>714</v>
       </c>
       <c r="I60" s="2">
-        <v>1090306</v>
+        <v>1090611</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>281</v>
+        <v>715</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -6009,24 +6010,26 @@
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>282</v>
+        <v>720</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>283</v>
+        <v>721</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>284</v>
+        <v>722</v>
       </c>
       <c r="I61" s="2">
-        <v>1090301</v>
-      </c>
-      <c r="J61" s="2"/>
+        <v>1090619</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -6039,23 +6042,25 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>285</v>
+        <v>734</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>735</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>736</v>
+      </c>
       <c r="I62" s="2">
-        <v>1090926</v>
+        <v>1090607</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>287</v>
+        <v>737</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -6069,25 +6074,25 @@
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="I63" s="2">
-        <v>1091201</v>
+        <v>1091206</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -6101,25 +6106,25 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="I64" s="2">
-        <v>1090906</v>
+        <v>1091217</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -6133,26 +6138,26 @@
         <v>6</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="H65" s="2"/>
       <c r="I65" s="2">
-        <v>1090406</v>
-      </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1090926</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -6163,24 +6168,26 @@
         <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="I66" s="2">
-        <v>1090602</v>
-      </c>
-      <c r="J66" s="2"/>
+        <v>1091209</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
@@ -6193,23 +6200,23 @@
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2">
-        <v>1091207</v>
+        <v>1090917</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -6223,26 +6230,22 @@
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="H68" s="2"/>
       <c r="I68" s="2">
-        <v>1090709</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>314</v>
-      </c>
+        <v>1090114</v>
+      </c>
+      <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -6255,21 +6258,25 @@
         <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>317</v>
+        <v>477</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1091212</v>
+      </c>
       <c r="J69" s="2" t="s">
-        <v>319</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -6283,25 +6290,23 @@
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>322</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H70" s="2"/>
       <c r="I70" s="2">
-        <v>1090313</v>
+        <v>1090913</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>323</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -6315,25 +6320,23 @@
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>324</v>
+        <v>519</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>326</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="H71" s="2"/>
       <c r="I71" s="2">
-        <v>1090710</v>
+        <v>1090914</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>327</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -6347,22 +6350,26 @@
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>328</v>
+        <v>564</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H72" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>566</v>
+      </c>
       <c r="I72" s="2">
-        <v>1090814</v>
-      </c>
-      <c r="J72" s="2"/>
+        <v>1090904</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -6375,25 +6382,23 @@
         <v>6</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>330</v>
+        <v>631</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="H73" s="2"/>
       <c r="I73" s="2">
-        <v>1090308</v>
+        <v>1091222</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>333</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -6407,25 +6412,25 @@
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>334</v>
+        <v>642</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>335</v>
+        <v>643</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>336</v>
+        <v>644</v>
       </c>
       <c r="I74" s="2">
-        <v>1091208</v>
+        <v>1091210</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>337</v>
+        <v>645</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -6439,25 +6444,25 @@
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>338</v>
+        <v>646</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>339</v>
+        <v>647</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>340</v>
+        <v>648</v>
       </c>
       <c r="I75" s="2">
-        <v>1090209</v>
+        <v>1091216</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>341</v>
+        <v>649</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -6471,306 +6476,300 @@
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>342</v>
+        <v>684</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>343</v>
+        <v>685</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>344</v>
+        <v>686</v>
       </c>
       <c r="I76" s="2">
-        <v>1090711</v>
+        <v>1091213</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>345</v>
+        <v>687</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="2">
-        <v>6</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I77" s="2">
-        <v>1090606</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>349</v>
+      <c r="A77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="4">
+        <v>5</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="2">
-        <v>6</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="I78" s="2">
-        <v>1090600</v>
-      </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="2">
-        <v>6</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I79" s="2">
-        <v>1091209</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>356</v>
+      <c r="A78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="4">
+        <v>5</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="4">
+        <v>5</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="2">
-        <v>6</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1090107</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>360</v>
+      <c r="A80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="4">
+        <v>5</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="2">
-        <v>6</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="A81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="4">
+        <v>5</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="4">
+        <v>5</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="4">
+        <v>5</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I81" s="2">
-        <v>1090305</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="2">
-        <v>6</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I82" s="2">
-        <v>1090807</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="2">
-        <v>6</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I83" s="2">
-        <v>1090617</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="2">
-        <v>6</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I84" s="2">
-        <v>1090918</v>
-      </c>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="2">
-        <v>6</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2">
-        <v>1090415</v>
-      </c>
-      <c r="J85" s="2"/>
+      <c r="H85" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="3" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
@@ -6780,24 +6779,24 @@
         <v>11</v>
       </c>
       <c r="C86" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>288</v>
+        <v>738</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>289</v>
+        <v>739</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>378</v>
+        <v>744</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2">
-        <v>1091218</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -6808,27 +6807,27 @@
         <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>205</v>
+        <v>738</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>206</v>
+        <v>739</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>380</v>
+        <v>747</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2">
-        <v>1090321</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>10</v>
       </c>
@@ -6836,87 +6835,87 @@
         <v>11</v>
       </c>
       <c r="C88" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2">
-        <v>1090702</v>
-      </c>
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="2">
-        <v>6</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I89" s="2">
-        <v>1091109</v>
-      </c>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="2">
-        <v>6</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2">
-        <v>1090917</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H90" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -6924,28 +6923,24 @@
         <v>11</v>
       </c>
       <c r="C91" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>196</v>
+        <v>738</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>197</v>
+        <v>739</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="I91" s="2">
-        <v>1090614</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>393</v>
+        <v>288</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="3" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -6956,59 +6951,59 @@
         <v>11</v>
       </c>
       <c r="C92" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I92" s="2">
-        <v>1090907</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="2">
-        <v>6</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2">
-        <v>1091202</v>
-      </c>
-      <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H93" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -7016,25 +7011,25 @@
         <v>11</v>
       </c>
       <c r="C94" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>216</v>
+        <v>738</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>217</v>
+        <v>739</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>400</v>
+        <v>299</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>401</v>
+        <v>298</v>
       </c>
       <c r="H94" s="2"/>
-      <c r="I94" s="2">
-        <v>1090114</v>
-      </c>
-      <c r="J94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="3" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
@@ -7044,27 +7039,27 @@
         <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>205</v>
+        <v>738</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>206</v>
+        <v>739</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>402</v>
+        <v>761</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2">
-        <v>1090319</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>10</v>
       </c>
@@ -7072,31 +7067,29 @@
         <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>263</v>
+        <v>738</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>264</v>
+        <v>739</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>404</v>
+        <v>274</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I96" s="2">
-        <v>1090706</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>10</v>
       </c>
@@ -7104,25 +7097,27 @@
         <v>11</v>
       </c>
       <c r="C97" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>205</v>
+        <v>738</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>206</v>
+        <v>739</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2">
-        <v>1090320</v>
-      </c>
-      <c r="J97" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="3" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
@@ -7135,22 +7130,26 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>410</v>
+        <v>265</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H98" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="I98" s="2">
-        <v>1090202</v>
-      </c>
-      <c r="J98" s="2"/>
+        <v>1090715</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
@@ -7163,25 +7162,25 @@
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>413</v>
+        <v>312</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>414</v>
+        <v>313</v>
       </c>
       <c r="I99" s="2">
-        <v>1090616</v>
+        <v>1090709</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -7195,25 +7194,25 @@
         <v>6</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="I100" s="2">
-        <v>1090927</v>
+        <v>1090710</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>419</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -7227,25 +7226,25 @@
         <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>422</v>
+        <v>344</v>
       </c>
       <c r="I101" s="2">
-        <v>1090210</v>
+        <v>1090711</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>423</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -7259,20 +7258,20 @@
         <v>6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2">
-        <v>1090205</v>
+        <v>1090702</v>
       </c>
       <c r="J102" s="2"/>
     </row>
@@ -7293,17 +7292,19 @@
         <v>264</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H103" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="I103" s="2">
-        <v>1090708</v>
+        <v>1090706</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -7317,25 +7318,23 @@
         <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>431</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="H104" s="2"/>
       <c r="I104" s="2">
-        <v>1091211</v>
+        <v>1090708</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -7349,25 +7348,25 @@
         <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>433</v>
+        <v>579</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>434</v>
+        <v>580</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>435</v>
+        <v>581</v>
       </c>
       <c r="I105" s="2">
-        <v>1090920</v>
+        <v>1090701</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>436</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -7381,22 +7380,26 @@
         <v>6</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>437</v>
+        <v>594</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H106" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>596</v>
+      </c>
       <c r="I106" s="2">
-        <v>1090905</v>
-      </c>
-      <c r="J106" s="2"/>
+        <v>1090712</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
@@ -7409,25 +7412,25 @@
         <v>6</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>439</v>
+        <v>598</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>440</v>
+        <v>599</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>441</v>
+        <v>600</v>
       </c>
       <c r="I107" s="2">
-        <v>1090211</v>
+        <v>1090713</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>442</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -7441,25 +7444,25 @@
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>443</v>
+        <v>627</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>444</v>
+        <v>628</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>445</v>
+        <v>629</v>
       </c>
       <c r="I108" s="2">
-        <v>1090620</v>
+        <v>1090707</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>446</v>
+        <v>630</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -7473,863 +7476,873 @@
         <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>447</v>
+        <v>638</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>448</v>
+        <v>639</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2">
-        <v>1090806</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>449</v>
-      </c>
+        <v>1090716</v>
+      </c>
+      <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="2">
-        <v>6</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I110" s="2">
-        <v>1090808</v>
-      </c>
-      <c r="J110" s="2"/>
+      <c r="A110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="4">
+        <v>6</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="2">
-        <v>6</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I111" s="2">
-        <v>1090801</v>
-      </c>
-      <c r="J111" s="2"/>
+      <c r="A111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="4">
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="2">
-        <v>6</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I112" s="2">
-        <v>1091116</v>
-      </c>
-      <c r="J112" s="2"/>
+      <c r="A112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="4">
+        <v>6</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="2">
-        <v>6</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I113" s="2">
-        <v>1090928</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>462</v>
+      <c r="A113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="4">
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="2">
-        <v>6</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I114" s="2">
-        <v>1090509</v>
-      </c>
-      <c r="J114" s="2"/>
+      <c r="A114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="4">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="2">
-        <v>6</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="I115" s="2">
-        <v>1091110</v>
-      </c>
-      <c r="J115" s="2"/>
+      <c r="A115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="4">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="2">
-        <v>6</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I116" s="2">
-        <v>1090613</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>472</v>
+      <c r="A116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="4">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="2">
-        <v>6</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="I117" s="2">
-        <v>1090206</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>476</v>
+      <c r="A117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="4">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="2">
-        <v>6</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="I118" s="2">
-        <v>1091212</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>480</v>
+      <c r="A118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="4">
+        <v>6</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="2">
-        <v>6</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="I119" s="2">
-        <v>1090912</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>484</v>
+      <c r="A119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="4">
+        <v>6</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="2">
-        <v>6</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="I120" s="2">
-        <v>1090625</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>488</v>
+      <c r="A120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="4">
+        <v>6</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="2">
-        <v>6</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2">
-        <v>1090913</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>491</v>
+      <c r="A121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="4">
+        <v>6</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="2">
-        <v>6</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I122" s="2">
-        <v>1090311</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>495</v>
+      <c r="A122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="4">
+        <v>6</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="2">
-        <v>6</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I123" s="2">
-        <v>1090309</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>499</v>
+      <c r="A123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="4">
+        <v>6</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="2">
-        <v>6</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I124" s="2">
-        <v>1090622</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>503</v>
+      <c r="A124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="4">
+        <v>6</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="2">
-        <v>6</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I125" s="2">
-        <v>1090208</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>507</v>
+      <c r="A125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="4">
+        <v>6</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="2">
-        <v>6</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="I126" s="2">
-        <v>1090902</v>
-      </c>
-      <c r="J126" s="2"/>
+      <c r="A126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="4">
+        <v>6</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="2">
-        <v>6</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="I127" s="2">
-        <v>1090901</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>514</v>
+      <c r="A127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="4">
+        <v>6</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="2">
-        <v>6</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I128" s="2">
-        <v>1090216</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>518</v>
+      <c r="A128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="4">
+        <v>6</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="2">
-        <v>6</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2">
-        <v>1090914</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>521</v>
+      <c r="A129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="4">
+        <v>6</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="2">
-        <v>6</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="I130" s="2">
-        <v>1090915</v>
-      </c>
-      <c r="J130" s="2"/>
+      <c r="A130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="4">
+        <v>6</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J130" s="4"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="2">
-        <v>6</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I131" s="2">
-        <v>1090601</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="2">
-        <v>6</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="I132" s="2">
-        <v>1090408</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>532</v>
+      <c r="A131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="4">
+        <v>6</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="4">
+        <v>6</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="2">
-        <v>6</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2">
-        <v>1090401</v>
-      </c>
-      <c r="J133" s="2"/>
+      <c r="A133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="4">
+        <v>6</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="2">
-        <v>6</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="I134" s="2">
-        <v>1090409</v>
-      </c>
-      <c r="J134" s="2"/>
+      <c r="A134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="4">
+        <v>6</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="2">
-        <v>6</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="I135" s="2">
-        <v>1090610</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>541</v>
+      <c r="A135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="4">
+        <v>6</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="2">
-        <v>6</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="I136" s="2">
-        <v>1090302</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>545</v>
+      <c r="A136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="4">
+        <v>6</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -8343,25 +8356,25 @@
         <v>6</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>546</v>
+        <v>290</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>547</v>
+        <v>291</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>548</v>
+        <v>292</v>
       </c>
       <c r="I137" s="2">
-        <v>1090106</v>
+        <v>1091201</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>549</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -8375,24 +8388,26 @@
         <v>6</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>550</v>
+        <v>334</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>551</v>
+        <v>335</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>552</v>
+        <v>336</v>
       </c>
       <c r="I138" s="2">
-        <v>1090113</v>
-      </c>
-      <c r="J138" s="2"/>
+        <v>1091208</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
@@ -8405,25 +8420,25 @@
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>553</v>
+        <v>338</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>554</v>
+        <v>339</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>555</v>
+        <v>340</v>
       </c>
       <c r="I139" s="2">
-        <v>1090621</v>
+        <v>1090209</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>556</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -8437,26 +8452,22 @@
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>557</v>
+        <v>378</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>559</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="H140" s="2"/>
       <c r="I140" s="2">
-        <v>1091106</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>560</v>
-      </c>
+        <v>1091218</v>
+      </c>
+      <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
@@ -8469,22 +8480,20 @@
         <v>6</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>561</v>
+        <v>398</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>563</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="H141" s="2"/>
       <c r="I141" s="2">
-        <v>1090809</v>
+        <v>1091202</v>
       </c>
       <c r="J141" s="2"/>
     </row>
@@ -8499,25 +8508,25 @@
         <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>564</v>
+        <v>429</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>565</v>
+        <v>430</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>566</v>
+        <v>431</v>
       </c>
       <c r="I142" s="2">
-        <v>1090904</v>
+        <v>1091211</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>567</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -8531,25 +8540,25 @@
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>568</v>
+        <v>439</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>569</v>
+        <v>440</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>570</v>
+        <v>441</v>
       </c>
       <c r="I143" s="2">
-        <v>1090919</v>
+        <v>1090211</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>571</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -8563,22 +8572,20 @@
         <v>6</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>574</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="H144" s="2"/>
       <c r="I144" s="2">
-        <v>1091111</v>
+        <v>1091205</v>
       </c>
       <c r="J144" s="2"/>
     </row>
@@ -8593,25 +8600,25 @@
         <v>6</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>575</v>
+        <v>708</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>576</v>
+        <v>709</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>577</v>
+        <v>710</v>
       </c>
       <c r="I145" s="2">
-        <v>1090212</v>
+        <v>1091215</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>578</v>
+        <v>711</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -8625,25 +8632,25 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>579</v>
+        <v>727</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>580</v>
+        <v>728</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>581</v>
+        <v>729</v>
       </c>
       <c r="I146" s="2">
-        <v>1090701</v>
+        <v>1091214</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>582</v>
+        <v>730</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -8657,26 +8664,20 @@
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>583</v>
+        <v>235</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="I147" s="2">
-        <v>1090318</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>586</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
@@ -8689,22 +8690,20 @@
         <v>6</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>587</v>
+        <v>328</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>589</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="H148" s="2"/>
       <c r="I148" s="2">
-        <v>1090410</v>
+        <v>1090814</v>
       </c>
       <c r="J148" s="2"/>
     </row>
@@ -8719,25 +8718,25 @@
         <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>590</v>
+        <v>365</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>591</v>
+        <v>366</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>592</v>
+        <v>367</v>
       </c>
       <c r="I149" s="2">
-        <v>1090213</v>
+        <v>1090807</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>593</v>
+        <v>368</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -8751,25 +8750,23 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>594</v>
+        <v>447</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>596</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="H150" s="2"/>
       <c r="I150" s="2">
-        <v>1090712</v>
+        <v>1090806</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>597</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -8783,26 +8780,24 @@
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>598</v>
+        <v>450</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>599</v>
+        <v>451</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>600</v>
+        <v>452</v>
       </c>
       <c r="I151" s="2">
-        <v>1090713</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>601</v>
-      </c>
+        <v>1090808</v>
+      </c>
+      <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
@@ -8815,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>602</v>
+        <v>453</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>603</v>
+        <v>454</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>604</v>
+        <v>455</v>
       </c>
       <c r="I152" s="2">
-        <v>1091112</v>
+        <v>1090801</v>
       </c>
       <c r="J152" s="2"/>
     </row>
@@ -8845,26 +8840,24 @@
         <v>6</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="I153" s="2">
-        <v>1090609</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>608</v>
-      </c>
+        <v>1090809</v>
+      </c>
+      <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
@@ -8877,26 +8870,22 @@
         <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>611</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="H154" s="2"/>
       <c r="I154" s="2">
-        <v>1090315</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>612</v>
-      </c>
+        <v>1090802</v>
+      </c>
+      <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
@@ -8915,14 +8904,16 @@
         <v>234</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="H155" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>652</v>
+      </c>
       <c r="I155" s="2">
-        <v>1090802</v>
+        <v>1090810</v>
       </c>
       <c r="J155" s="2"/>
     </row>
@@ -8937,20 +8928,22 @@
         <v>6</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>615</v>
+        <v>669</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="H156" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="I156" s="2">
-        <v>1090909</v>
+        <v>1090812</v>
       </c>
       <c r="J156" s="2"/>
     </row>
@@ -8965,26 +8958,22 @@
         <v>6</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>617</v>
+        <v>680</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>619</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="H157" s="2"/>
       <c r="I157" s="2">
-        <v>1090310</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>620</v>
-      </c>
+        <v>1090804</v>
+      </c>
+      <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
@@ -8997,26 +8986,24 @@
         <v>6</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>622</v>
+        <v>696</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="I158" s="2">
-        <v>1090916</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>624</v>
-      </c>
+        <v>1090811</v>
+      </c>
+      <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
@@ -9029,20 +9016,22 @@
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>625</v>
+        <v>213</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="H159" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="I159" s="2">
-        <v>1090627</v>
+        <v>1090910</v>
       </c>
       <c r="J159" s="2"/>
     </row>
@@ -9057,25 +9046,25 @@
         <v>6</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>627</v>
+        <v>225</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>628</v>
+        <v>226</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>629</v>
+        <v>227</v>
       </c>
       <c r="I160" s="2">
-        <v>1090707</v>
+        <v>1090908</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>630</v>
+        <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -9089,23 +9078,25 @@
         <v>6</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>631</v>
+        <v>269</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="H161" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="I161" s="2">
-        <v>1091222</v>
+        <v>1090911</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>633</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -9125,19 +9116,19 @@
         <v>212</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>634</v>
+        <v>294</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>635</v>
+        <v>295</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>636</v>
+        <v>296</v>
       </c>
       <c r="I162" s="2">
-        <v>1090903</v>
+        <v>1090906</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>637</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -9151,20 +9142,22 @@
         <v>6</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>638</v>
+        <v>373</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="H163" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="I163" s="2">
-        <v>1090716</v>
+        <v>1090918</v>
       </c>
       <c r="J163" s="2"/>
     </row>
@@ -9179,22 +9172,26 @@
         <v>6</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>640</v>
+        <v>394</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="H164" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="I164" s="2">
-        <v>1091205</v>
-      </c>
-      <c r="J164" s="2"/>
+        <v>1090907</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
@@ -9207,25 +9204,25 @@
         <v>6</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>642</v>
+        <v>416</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>643</v>
+        <v>417</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>644</v>
+        <v>418</v>
       </c>
       <c r="I165" s="2">
-        <v>1091210</v>
+        <v>1090927</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>645</v>
+        <v>419</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -9239,25 +9236,25 @@
         <v>6</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>646</v>
+        <v>433</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>647</v>
+        <v>434</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>648</v>
+        <v>435</v>
       </c>
       <c r="I166" s="2">
-        <v>1091216</v>
+        <v>1090920</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>649</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -9271,22 +9268,20 @@
         <v>6</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>650</v>
+        <v>437</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>652</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="H167" s="2"/>
       <c r="I167" s="2">
-        <v>1090810</v>
+        <v>1090905</v>
       </c>
       <c r="J167" s="2"/>
     </row>
@@ -9301,22 +9296,26 @@
         <v>6</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="H168" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="I168" s="2">
-        <v>1090316</v>
-      </c>
-      <c r="J168" s="2"/>
+        <v>1090928</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
@@ -9329,25 +9328,25 @@
         <v>6</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>655</v>
+        <v>481</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>656</v>
+        <v>482</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>657</v>
+        <v>483</v>
       </c>
       <c r="I169" s="2">
-        <v>1090314</v>
+        <v>1090912</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>658</v>
+        <v>484</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -9361,26 +9360,24 @@
         <v>6</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>659</v>
+        <v>508</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>660</v>
+        <v>509</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>661</v>
+        <v>510</v>
       </c>
       <c r="I170" s="2">
-        <v>1090214</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>662</v>
-      </c>
+        <v>1090902</v>
+      </c>
+      <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
@@ -9393,25 +9390,25 @@
         <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>663</v>
+        <v>511</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>664</v>
+        <v>512</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>665</v>
+        <v>513</v>
       </c>
       <c r="I171" s="2">
-        <v>1090108</v>
+        <v>1090901</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>666</v>
+        <v>514</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -9425,19 +9422,23 @@
         <v>6</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>667</v>
+        <v>522</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I172" s="2">
+        <v>1090915</v>
+      </c>
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -9451,24 +9452,26 @@
         <v>6</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>669</v>
+        <v>568</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>670</v>
+        <v>569</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>671</v>
+        <v>570</v>
       </c>
       <c r="I173" s="2">
-        <v>1090812</v>
-      </c>
-      <c r="J173" s="2"/>
+        <v>1090919</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
@@ -9481,26 +9484,22 @@
         <v>6</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>672</v>
+        <v>615</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>674</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="H174" s="2"/>
       <c r="I174" s="2">
-        <v>1090207</v>
-      </c>
-      <c r="J174" s="2" t="s">
-        <v>675</v>
-      </c>
+        <v>1090909</v>
+      </c>
+      <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
@@ -9513,25 +9512,25 @@
         <v>6</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>676</v>
+        <v>621</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>677</v>
+        <v>622</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>678</v>
+        <v>623</v>
       </c>
       <c r="I175" s="2">
-        <v>1090109</v>
+        <v>1090916</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>679</v>
+        <v>624</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -9545,22 +9544,26 @@
         <v>6</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>680</v>
+        <v>634</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="H176" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>636</v>
+      </c>
       <c r="I176" s="2">
-        <v>1090804</v>
-      </c>
-      <c r="J176" s="2"/>
+        <v>1090903</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
@@ -9573,22 +9576,26 @@
         <v>6</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="H177" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="I177" s="2">
-        <v>1090102</v>
-      </c>
-      <c r="J177" s="2"/>
+        <v>1090921</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
@@ -9601,26 +9608,24 @@
         <v>6</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>684</v>
+        <v>300</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>685</v>
+        <v>301</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>686</v>
+        <v>302</v>
       </c>
       <c r="I178" s="2">
-        <v>1091213</v>
-      </c>
-      <c r="J178" s="2" t="s">
-        <v>687</v>
-      </c>
+        <v>1090406</v>
+      </c>
+      <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
@@ -9633,26 +9638,22 @@
         <v>6</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>688</v>
+        <v>376</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>690</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="H179" s="2"/>
       <c r="I179" s="2">
-        <v>1090921</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>691</v>
-      </c>
+        <v>1090415</v>
+      </c>
+      <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
@@ -9665,26 +9666,26 @@
         <v>6</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>692</v>
+        <v>463</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>693</v>
+        <v>464</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>694</v>
+        <v>465</v>
       </c>
       <c r="I180" s="2">
-        <v>1090612</v>
+        <v>1090509</v>
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>10</v>
       </c>
@@ -9695,24 +9696,26 @@
         <v>6</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>695</v>
+        <v>529</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>696</v>
+        <v>530</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>697</v>
+        <v>531</v>
       </c>
       <c r="I181" s="2">
-        <v>1090811</v>
-      </c>
-      <c r="J181" s="2"/>
+        <v>1090408</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
@@ -9725,26 +9728,22 @@
         <v>6</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>698</v>
+        <v>533</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>700</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H182" s="2"/>
       <c r="I182" s="2">
-        <v>1090215</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>701</v>
-      </c>
+        <v>1090401</v>
+      </c>
+      <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
@@ -9757,20 +9756,22 @@
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>702</v>
+        <v>535</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="H183" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>537</v>
+      </c>
       <c r="I183" s="2">
-        <v>1090604</v>
+        <v>1090409</v>
       </c>
       <c r="J183" s="2"/>
     </row>
@@ -9785,26 +9786,24 @@
         <v>6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>704</v>
+        <v>587</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>705</v>
+        <v>588</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>706</v>
+        <v>589</v>
       </c>
       <c r="I184" s="2">
-        <v>1090303</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>707</v>
-      </c>
+        <v>1090410</v>
+      </c>
+      <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
@@ -9817,26 +9816,24 @@
         <v>6</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>708</v>
+        <v>275</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>709</v>
+        <v>276</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>710</v>
+        <v>277</v>
       </c>
       <c r="I185" s="2">
-        <v>1091215</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>711</v>
-      </c>
+        <v>1091108</v>
+      </c>
+      <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
@@ -9849,26 +9846,24 @@
         <v>6</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>712</v>
+        <v>384</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>713</v>
+        <v>385</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>714</v>
+        <v>386</v>
       </c>
       <c r="I186" s="2">
-        <v>1090611</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>715</v>
-      </c>
+        <v>1091109</v>
+      </c>
+      <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
@@ -9881,26 +9876,24 @@
         <v>6</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>716</v>
+        <v>456</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>717</v>
+        <v>457</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>718</v>
+        <v>458</v>
       </c>
       <c r="I187" s="2">
-        <v>1090100</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>719</v>
-      </c>
+        <v>1091116</v>
+      </c>
+      <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
@@ -9913,26 +9906,24 @@
         <v>6</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>720</v>
+        <v>466</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>721</v>
+        <v>467</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>722</v>
+        <v>468</v>
       </c>
       <c r="I188" s="2">
-        <v>1090619</v>
-      </c>
-      <c r="J188" s="2" t="s">
-        <v>723</v>
-      </c>
+        <v>1091110</v>
+      </c>
+      <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
@@ -9945,23 +9936,25 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>724</v>
+        <v>557</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="H189" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="I189" s="2">
-        <v>1091221</v>
+        <v>1091106</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>726</v>
+        <v>560</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -9975,26 +9968,24 @@
         <v>6</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>727</v>
+        <v>572</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>728</v>
+        <v>573</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>729</v>
+        <v>574</v>
       </c>
       <c r="I190" s="2">
-        <v>1091214</v>
-      </c>
-      <c r="J190" s="2" t="s">
-        <v>730</v>
-      </c>
+        <v>1091111</v>
+      </c>
+      <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
@@ -10013,16 +10004,16 @@
         <v>274</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>731</v>
+        <v>602</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>732</v>
+        <v>603</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>733</v>
+        <v>604</v>
       </c>
       <c r="I191" s="2">
-        <v>1091107</v>
+        <v>1091112</v>
       </c>
       <c r="J191" s="2"/>
     </row>
@@ -10037,176 +10028,186 @@
         <v>6</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="I192" s="2">
-        <v>1090607</v>
-      </c>
-      <c r="J192" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="2">
-        <v>5</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J193" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" s="2">
-        <v>5</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="I194" s="2"/>
-      <c r="J194" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C195" s="2">
-        <v>5</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C196" s="2">
-        <v>5</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
-    </row>
-    <row r="197" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C197" s="2">
-        <v>5</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="I197" s="2"/>
-      <c r="J197" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>1091107</v>
+      </c>
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="4">
+        <v>6</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="4">
+        <v>6</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="4">
+        <v>6</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="4">
+        <v>6</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="4">
+        <v>6</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>10</v>
       </c>
@@ -10214,27 +10215,29 @@
         <v>11</v>
       </c>
       <c r="C198" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>738</v>
+        <v>306</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>739</v>
+        <v>307</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
-      <c r="J198" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="I198" s="2">
+        <v>1091207</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>10</v>
       </c>
@@ -10242,29 +10245,31 @@
         <v>11</v>
       </c>
       <c r="C199" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>738</v>
+        <v>306</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>739</v>
+        <v>307</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="I199" s="2"/>
-      <c r="J199" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="I199" s="2">
+        <v>1090107</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>10</v>
       </c>
@@ -10272,27 +10277,30 @@
         <v>11</v>
       </c>
       <c r="C200" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>738</v>
+        <v>306</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>739</v>
+        <v>307</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>289</v>
+        <v>546</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="I200" s="2">
+        <v>1090106</v>
+      </c>
+      <c r="J200" s="2"/>
+      <c r="K200" s="6"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>10</v>
       </c>
@@ -10300,29 +10308,31 @@
         <v>11</v>
       </c>
       <c r="C201" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>738</v>
+        <v>306</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>739</v>
+        <v>307</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>234</v>
+        <v>550</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>233</v>
+        <v>551</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="I201" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="I201" s="2">
+        <v>1090113</v>
+      </c>
       <c r="J201" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -10330,29 +10340,31 @@
         <v>11</v>
       </c>
       <c r="C202" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>738</v>
+        <v>306</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>739</v>
+        <v>307</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>212</v>
+        <v>663</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>211</v>
+        <v>664</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="I202" s="2"/>
-      <c r="J202" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="I202" s="2">
+        <v>1090108</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>10</v>
       </c>
@@ -10360,27 +10372,31 @@
         <v>11</v>
       </c>
       <c r="C203" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>738</v>
+        <v>306</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>739</v>
+        <v>307</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>299</v>
+        <v>676</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I203" s="2">
+        <v>1090109</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>10</v>
       </c>
@@ -10388,27 +10404,27 @@
         <v>11</v>
       </c>
       <c r="C204" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>738</v>
+        <v>306</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>739</v>
+        <v>307</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>761</v>
+        <v>682</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="I204" s="2"/>
+        <v>683</v>
+      </c>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2">
+        <v>1090102</v>
+      </c>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>10</v>
       </c>
@@ -10416,29 +10432,31 @@
         <v>11</v>
       </c>
       <c r="C205" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>738</v>
+        <v>306</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>739</v>
+        <v>307</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>274</v>
+        <v>716</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>273</v>
+        <v>717</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="I205" s="2"/>
-      <c r="J205" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+      <c r="I205" s="2">
+        <v>1090100</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>10</v>
       </c>
@@ -10446,415 +10464,291 @@
         <v>11</v>
       </c>
       <c r="C206" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>738</v>
+        <v>306</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>739</v>
+        <v>307</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>307</v>
+        <v>724</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="I206" s="2"/>
-      <c r="J206" s="3" t="s">
-        <v>767</v>
+        <v>725</v>
+      </c>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2">
+        <v>1091221</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J206" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J206" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J206">
+      <sortCondition ref="D1:D206"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="138" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="137" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
     <cfRule type="duplicateValues" dxfId="136" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
     <cfRule type="duplicateValues" dxfId="135" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
     <cfRule type="duplicateValues" dxfId="134" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
     <cfRule type="duplicateValues" dxfId="133" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:J48">
     <cfRule type="duplicateValues" dxfId="132" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:J48">
     <cfRule type="duplicateValues" dxfId="131" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:J51">
     <cfRule type="duplicateValues" dxfId="130" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50:J51">
     <cfRule type="duplicateValues" dxfId="129" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J54">
     <cfRule type="duplicateValues" dxfId="128" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J54">
     <cfRule type="duplicateValues" dxfId="127" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
     <cfRule type="duplicateValues" dxfId="126" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
     <cfRule type="duplicateValues" dxfId="125" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:J58">
     <cfRule type="duplicateValues" dxfId="124" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57:J58">
     <cfRule type="duplicateValues" dxfId="123" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
     <cfRule type="duplicateValues" dxfId="122" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
     <cfRule type="duplicateValues" dxfId="121" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62">
-    <cfRule type="duplicateValues" dxfId="120" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62">
-    <cfRule type="duplicateValues" dxfId="119" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J64">
-    <cfRule type="duplicateValues" dxfId="118" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J64">
-    <cfRule type="duplicateValues" dxfId="117" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67">
     <cfRule type="duplicateValues" dxfId="116" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
     <cfRule type="duplicateValues" dxfId="115" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:J71">
     <cfRule type="duplicateValues" dxfId="114" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68:J71">
     <cfRule type="duplicateValues" dxfId="113" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:J76">
     <cfRule type="duplicateValues" dxfId="112" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73:J76">
     <cfRule type="duplicateValues" dxfId="111" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
     <cfRule type="duplicateValues" dxfId="110" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
     <cfRule type="duplicateValues" dxfId="109" priority="109"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
-    <cfRule type="duplicateValues" dxfId="108" priority="108"/>
+  <conditionalFormatting sqref="J80">
+    <cfRule type="duplicateValues" dxfId="108" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81">
-    <cfRule type="duplicateValues" dxfId="107" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82:J83">
-    <cfRule type="duplicateValues" dxfId="106" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82:J83">
-    <cfRule type="duplicateValues" dxfId="105" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
-    <cfRule type="duplicateValues" dxfId="104" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
-    <cfRule type="duplicateValues" dxfId="103" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90">
     <cfRule type="duplicateValues" dxfId="102" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J90">
     <cfRule type="duplicateValues" dxfId="101" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92">
-    <cfRule type="duplicateValues" dxfId="100" priority="100"/>
+  <conditionalFormatting sqref="J91">
+    <cfRule type="duplicateValues" dxfId="100" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92">
-    <cfRule type="duplicateValues" dxfId="99" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="duplicateValues" dxfId="98" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96">
-    <cfRule type="duplicateValues" dxfId="97" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99">
-    <cfRule type="duplicateValues" dxfId="96" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J99">
-    <cfRule type="duplicateValues" dxfId="95" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J100:J101">
-    <cfRule type="duplicateValues" dxfId="94" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100:J101">
-    <cfRule type="duplicateValues" dxfId="93" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103">
-    <cfRule type="duplicateValues" dxfId="92" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J103">
-    <cfRule type="duplicateValues" dxfId="91" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:J105 J107:J109">
-    <cfRule type="duplicateValues" dxfId="90" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113">
-    <cfRule type="duplicateValues" dxfId="89" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J113">
-    <cfRule type="duplicateValues" dxfId="88" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:J124">
-    <cfRule type="duplicateValues" dxfId="87" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J116:J124">
-    <cfRule type="duplicateValues" dxfId="86" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J125">
-    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:J129">
-    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J127:J129">
-    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131">
-    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J131">
-    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J135">
-    <cfRule type="duplicateValues" dxfId="79" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J135">
-    <cfRule type="duplicateValues" dxfId="78" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136">
-    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J136">
-    <cfRule type="duplicateValues" dxfId="76" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137">
-    <cfRule type="duplicateValues" dxfId="75" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J137">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J139">
-    <cfRule type="duplicateValues" dxfId="73" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J139">
-    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule type="duplicateValues" dxfId="71" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J140">
-    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142">
-    <cfRule type="duplicateValues" dxfId="69" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J142">
-    <cfRule type="duplicateValues" dxfId="68" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143">
-    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J143">
-    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="duplicateValues" dxfId="64" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146:J147">
-    <cfRule type="duplicateValues" dxfId="63" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J146:J147">
-    <cfRule type="duplicateValues" dxfId="62" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149:J150">
-    <cfRule type="duplicateValues" dxfId="61" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149:J150">
-    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151">
-    <cfRule type="duplicateValues" dxfId="59" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J151">
-    <cfRule type="duplicateValues" dxfId="58" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153">
-    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J153">
-    <cfRule type="duplicateValues" dxfId="56" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J154">
-    <cfRule type="duplicateValues" dxfId="55" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J154">
-    <cfRule type="duplicateValues" dxfId="54" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="duplicateValues" dxfId="53" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J157">
-    <cfRule type="duplicateValues" dxfId="52" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158">
-    <cfRule type="duplicateValues" dxfId="51" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J158">
-    <cfRule type="duplicateValues" dxfId="50" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J160">
-    <cfRule type="duplicateValues" dxfId="49" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J160">
-    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J161:J162">
-    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J161:J162">
-    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J165">
-    <cfRule type="duplicateValues" dxfId="45" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J165">
-    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J166">
-    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J166">
-    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J169">
-    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J169">
-    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J170:J171">
-    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J170:J171">
-    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J174">
-    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J174">
-    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J175">
-    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J175">
-    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J178">
-    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J178">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179">
-    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J179">
-    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J182">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J182">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J184">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J184">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J185">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J186">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J187">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J188">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J189">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J190">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J192">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J192">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J193">
@@ -10869,23 +10763,23 @@
   <conditionalFormatting sqref="J198">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J206">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="J199">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J199">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J200">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="J200:J201">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J202">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J203">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J205">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J206">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mapping/CCS DATA EXCHANGE ORG UNITS.xlsx
+++ b/mapping/CCS DATA EXCHANGE ORG UNITS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asamuel/Projects/ccs-datim-data-import/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B4DFB3-FE6E-2F4B-950A-EB2C0327CAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFB7543-5C8F-B847-84DA-73B9B034A53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="500" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1380" windowWidth="32740" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$206</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="767">
   <si>
     <t>regionorcountry_code</t>
   </si>
@@ -859,9 +872,6 @@
     <t>MZ.200821</t>
   </si>
   <si>
-    <t>lS6k4gG6vBr</t>
-  </si>
-  <si>
     <t>Chibuto CS</t>
   </si>
   <si>
@@ -874,12 +884,6 @@
     <t>My1mHzVMqV6</t>
   </si>
   <si>
-    <t>Chibuto HR</t>
-  </si>
-  <si>
-    <t>MZ.200945</t>
-  </si>
-  <si>
     <t>LqB6YZq9sG2</t>
   </si>
   <si>
@@ -1678,9 +1682,6 @@
     <t>zvv07VAowTS</t>
   </si>
   <si>
-    <t>Marien Nguabi PS</t>
-  </si>
-  <si>
     <t>MZ.201971</t>
   </si>
   <si>
@@ -2330,13 +2331,19 @@
   </si>
   <si>
     <t>kZka73xT1AZ</t>
+  </si>
+  <si>
+    <t>LuOhLTkxA0b</t>
+  </si>
+  <si>
+    <t>Marien Nguabi PS (Unidade 7 CS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2373,8 +2380,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2399,8 +2418,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2408,11 +2433,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2424,6 +2458,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4121,8 +4162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J46" sqref="F46:J46"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4131,8 +4172,10 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" customWidth="1"/>
-    <col min="7" max="9" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="9" width="16.1640625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4178,21 +4221,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4206,16 +4249,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
@@ -4234,25 +4277,25 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I4" s="2">
         <v>1090210</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4266,16 +4309,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
@@ -4294,25 +4337,25 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I6" s="2">
         <v>1090206</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4326,25 +4369,25 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I7" s="2">
         <v>1090208</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4358,25 +4401,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I8" s="2">
         <v>1090216</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4390,25 +4433,25 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I9" s="2">
         <v>1090212</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4422,25 +4465,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I10" s="2">
         <v>1090213</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4454,25 +4497,25 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I11" s="2">
         <v>1090214</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4486,16 +4529,16 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -4512,25 +4555,25 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="I13" s="2">
         <v>1090207</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -4544,25 +4587,25 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I14" s="2">
         <v>1090215</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -4629,7 +4672,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -4661,7 +4704,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -4693,7 +4736,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -4710,22 +4753,23 @@
         <v>206</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="I19" s="2">
         <v>1090306</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -4742,20 +4786,22 @@
         <v>206</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="I20" s="2">
-        <v>1090301</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1090313</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -4772,22 +4818,22 @@
         <v>206</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I21" s="2">
-        <v>1090313</v>
+        <v>1090308</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -4804,22 +4850,22 @@
         <v>206</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="I22" s="2">
-        <v>1090308</v>
+        <v>1090305</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -4836,22 +4882,18 @@
         <v>206</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>363</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2">
-        <v>1090305</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1090321</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -4868,18 +4910,18 @@
         <v>206</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2">
-        <v>1090321</v>
+        <v>1090319</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -4896,18 +4938,18 @@
         <v>206</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
-        <v>1090319</v>
+        <v>1090320</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -4924,18 +4966,22 @@
         <v>206</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="I26" s="2">
-        <v>1090320</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1090311</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -4952,22 +4998,22 @@
         <v>206</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I27" s="2">
-        <v>1090311</v>
+        <v>1090309</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -4984,22 +5030,22 @@
         <v>206</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="I28" s="2">
-        <v>1090309</v>
+        <v>1090302</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -5016,22 +5062,22 @@
         <v>206</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="I29" s="2">
-        <v>1090302</v>
+        <v>1090318</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -5048,22 +5094,22 @@
         <v>206</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="I30" s="2">
-        <v>1090318</v>
+        <v>1090315</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -5080,22 +5126,22 @@
         <v>206</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="I31" s="2">
-        <v>1090315</v>
+        <v>1090310</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -5112,22 +5158,18 @@
         <v>206</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>619</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="2">
-        <v>1090310</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1090316</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -5144,18 +5186,22 @@
         <v>206</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="I33" s="2">
+        <v>1090314</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
-        <v>1090316</v>
-      </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -5172,22 +5218,22 @@
         <v>206</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="I34" s="2">
-        <v>1090314</v>
+        <v>1090303</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -5198,28 +5244,28 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>704</v>
+        <v>198</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>705</v>
+        <v>199</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>706</v>
+        <v>200</v>
       </c>
       <c r="I35" s="2">
-        <v>1090303</v>
+        <v>1090605</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -5236,22 +5282,20 @@
         <v>197</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I36" s="2">
-        <v>1090605</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1090624</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
@@ -5268,20 +5312,20 @@
         <v>197</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="I37" s="2">
-        <v>1090624</v>
+        <v>1090608</v>
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -5298,20 +5342,22 @@
         <v>197</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="I38" s="2">
-        <v>1090608</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1090603</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -5328,22 +5374,22 @@
         <v>197</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="I39" s="2">
-        <v>1090603</v>
+        <v>1090615</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -5360,22 +5406,22 @@
         <v>197</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="I40" s="2">
-        <v>1090615</v>
+        <v>1090618</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
@@ -5392,22 +5438,18 @@
         <v>197</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>259</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2">
-        <v>1090618</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1090626</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
@@ -5424,18 +5466,20 @@
         <v>197</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="I42" s="2">
-        <v>1090626</v>
+        <v>1090602</v>
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -5452,20 +5496,22 @@
         <v>197</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="I43" s="2">
-        <v>1090602</v>
-      </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1090606</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -5482,22 +5528,23 @@
         <v>197</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I44" s="2">
-        <v>1090606</v>
+        <v>1090600</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -5514,22 +5561,22 @@
         <v>197</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="I45" s="2">
-        <v>1090600</v>
+        <v>1090617</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -5546,22 +5593,22 @@
         <v>197</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="I46" s="2">
-        <v>1090617</v>
+        <v>1090614</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -5578,22 +5625,22 @@
         <v>197</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="I47" s="2">
-        <v>1090614</v>
+        <v>1090616</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -5610,19 +5657,19 @@
         <v>197</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="I48" s="2">
-        <v>1090616</v>
+        <v>1090620</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -5642,19 +5689,19 @@
         <v>197</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="I49" s="2">
-        <v>1090620</v>
+        <v>1090613</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -5674,19 +5721,19 @@
         <v>197</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="I50" s="2">
-        <v>1090613</v>
+        <v>1090625</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -5706,19 +5753,19 @@
         <v>197</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="I51" s="2">
-        <v>1090625</v>
+        <v>1090622</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -5738,19 +5785,19 @@
         <v>197</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="I52" s="2">
-        <v>1090622</v>
+        <v>1090601</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5770,19 +5817,19 @@
         <v>197</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="I53" s="2">
-        <v>1090601</v>
+        <v>1090610</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -5802,19 +5849,19 @@
         <v>197</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="I54" s="2">
-        <v>1090610</v>
+        <v>1090621</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -5834,19 +5881,19 @@
         <v>197</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="I55" s="2">
-        <v>1090621</v>
+        <v>1090609</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -5866,20 +5913,16 @@
         <v>197</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>607</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="H56" s="2"/>
       <c r="I56" s="2">
-        <v>1090609</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>608</v>
-      </c>
+        <v>1090627</v>
+      </c>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -5898,14 +5941,16 @@
         <v>197</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="H57" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="I57" s="2">
-        <v>1090627</v>
+        <v>1090612</v>
       </c>
       <c r="J57" s="2"/>
     </row>
@@ -5926,16 +5971,14 @@
         <v>197</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>694</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="H58" s="2"/>
       <c r="I58" s="2">
-        <v>1090612</v>
+        <v>1090604</v>
       </c>
       <c r="J58" s="2"/>
     </row>
@@ -5956,16 +5999,20 @@
         <v>197</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>709</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>710</v>
+      </c>
       <c r="I59" s="2">
-        <v>1090604</v>
-      </c>
-      <c r="J59" s="2"/>
+        <v>1090611</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -5984,19 +6031,19 @@
         <v>197</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="I60" s="2">
-        <v>1090611</v>
+        <v>1090619</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -6016,19 +6063,19 @@
         <v>197</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="I61" s="2">
-        <v>1090619</v>
+        <v>1090607</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -6042,25 +6089,25 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>734</v>
+        <v>218</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>735</v>
+        <v>219</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>736</v>
+        <v>220</v>
       </c>
       <c r="I62" s="2">
-        <v>1090607</v>
+        <v>1091206</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>737</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -6080,19 +6127,19 @@
         <v>217</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="I63" s="2">
-        <v>1091206</v>
+        <v>1091217</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -6112,22 +6159,20 @@
         <v>217</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="H64" s="2"/>
       <c r="I64" s="2">
-        <v>1091217</v>
+        <v>1090926</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -6144,20 +6189,22 @@
         <v>217</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="I65" s="2">
-        <v>1090926</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>1091209</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -6174,19 +6221,17 @@
         <v>217</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="H66" s="2"/>
       <c r="I66" s="2">
-        <v>1091209</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>356</v>
+        <v>1090917</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -6206,18 +6251,16 @@
         <v>217</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2">
-        <v>1090917</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>389</v>
-      </c>
+        <v>1090114</v>
+      </c>
+      <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
@@ -6236,16 +6279,20 @@
         <v>217</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>476</v>
+      </c>
       <c r="I68" s="2">
-        <v>1090114</v>
-      </c>
-      <c r="J68" s="2"/>
+        <v>1091212</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -6264,19 +6311,17 @@
         <v>217</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>479</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="H69" s="2"/>
       <c r="I69" s="2">
-        <v>1091212</v>
+        <v>1090913</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -6296,17 +6341,17 @@
         <v>217</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2">
-        <v>1090913</v>
+        <v>1090914</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -6326,17 +6371,19 @@
         <v>217</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="I71" s="2">
-        <v>1090914</v>
+        <v>1090904</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -6356,19 +6403,17 @@
         <v>217</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>566</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="H72" s="2"/>
       <c r="I72" s="2">
-        <v>1090904</v>
+        <v>1091222</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -6388,17 +6433,19 @@
         <v>217</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="H73" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="I73" s="2">
-        <v>1091222</v>
+        <v>1091210</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -6427,7 +6474,7 @@
         <v>644</v>
       </c>
       <c r="I74" s="2">
-        <v>1091210</v>
+        <v>1091216</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>645</v>
@@ -6450,51 +6497,49 @@
         <v>217</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="I75" s="2">
-        <v>1091216</v>
+        <v>1091213</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="2">
-        <v>6</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="I76" s="2">
-        <v>1091213</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>687</v>
+      <c r="A76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="4">
+        <v>5</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -6514,17 +6559,19 @@
         <v>181</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I77" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="J77" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -6544,19 +6591,17 @@
         <v>181</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -6576,17 +6621,17 @@
         <v>181</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -6606,20 +6651,20 @@
         <v>181</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>10</v>
       </c>
@@ -6636,20 +6681,20 @@
         <v>181</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>10</v>
       </c>
@@ -6666,50 +6711,52 @@
         <v>181</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="2">
         <v>5</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="D83" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
@@ -6720,28 +6767,26 @@
         <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="I84" s="2"/>
+      <c r="J84" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -6752,26 +6797,24 @@
         <v>5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>205</v>
+        <v>741</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>742</v>
       </c>
       <c r="I85" s="2"/>
-      <c r="J85" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
@@ -6782,24 +6825,24 @@
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -6810,24 +6853,26 @@
         <v>5</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>10</v>
       </c>
@@ -6838,26 +6883,24 @@
         <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>750</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>10</v>
       </c>
@@ -6868,24 +6911,26 @@
         <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H89" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>749</v>
+      </c>
       <c r="I89" s="2"/>
       <c r="J89" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>10</v>
       </c>
@@ -6896,26 +6941,24 @@
         <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>753</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -6926,54 +6969,57 @@
         <v>5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H91" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>752</v>
+      </c>
       <c r="I91" s="2"/>
-      <c r="J91" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="2">
+      <c r="J91" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="1:11" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="8">
         <v>5</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="D92" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>10</v>
       </c>
@@ -6984,10 +7030,10 @@
         <v>5</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>212</v>
@@ -6996,14 +7042,14 @@
         <v>211</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -7014,24 +7060,24 @@
         <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -7042,24 +7088,24 @@
         <v>5</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>10</v>
       </c>
@@ -7070,10 +7116,10 @@
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>274</v>
@@ -7082,11 +7128,11 @@
         <v>273</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7100,23 +7146,23 @@
         <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -7168,19 +7214,19 @@
         <v>264</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I99" s="2">
         <v>1090709</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -7200,19 +7246,19 @@
         <v>264</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I100" s="2">
         <v>1090710</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -7232,19 +7278,19 @@
         <v>264</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I101" s="2">
         <v>1090711</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -7264,10 +7310,10 @@
         <v>264</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2">
@@ -7292,19 +7338,19 @@
         <v>264</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I103" s="2">
         <v>1090706</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -7324,17 +7370,17 @@
         <v>264</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2">
         <v>1090708</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -7354,19 +7400,19 @@
         <v>264</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I105" s="2">
         <v>1090701</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -7386,19 +7432,19 @@
         <v>264</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I106" s="2">
         <v>1090712</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -7418,19 +7464,19 @@
         <v>264</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I107" s="2">
         <v>1090713</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -7450,19 +7496,19 @@
         <v>264</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I108" s="2">
         <v>1090707</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -7482,10 +7528,10 @@
         <v>264</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2">
@@ -8356,25 +8402,25 @@
         <v>6</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="H137" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="I137" s="2">
         <v>1091201</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -8388,25 +8434,25 @@
         <v>6</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I138" s="2">
         <v>1091208</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -8420,25 +8466,25 @@
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I139" s="2">
         <v>1090209</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -8452,16 +8498,16 @@
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2">
@@ -8480,16 +8526,16 @@
         <v>6</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2">
@@ -8508,25 +8554,25 @@
         <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I142" s="2">
         <v>1091211</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -8540,25 +8586,25 @@
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I143" s="2">
         <v>1090211</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -8572,16 +8618,16 @@
         <v>6</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2">
@@ -8600,25 +8646,25 @@
         <v>6</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I145" s="2">
         <v>1091215</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -8632,25 +8678,25 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="I146" s="2">
         <v>1091214</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -8696,10 +8742,10 @@
         <v>234</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2">
@@ -8724,19 +8770,19 @@
         <v>234</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I149" s="2">
         <v>1090807</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -8756,17 +8802,17 @@
         <v>234</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2">
         <v>1090806</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -8786,13 +8832,13 @@
         <v>234</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I151" s="2">
         <v>1090808</v>
@@ -8816,13 +8862,13 @@
         <v>234</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I152" s="2">
         <v>1090801</v>
@@ -8846,13 +8892,13 @@
         <v>234</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I153" s="2">
         <v>1090809</v>
@@ -8876,10 +8922,10 @@
         <v>234</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2">
@@ -8904,13 +8950,13 @@
         <v>234</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I155" s="2">
         <v>1090810</v>
@@ -8934,13 +8980,13 @@
         <v>234</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="I156" s="2">
         <v>1090812</v>
@@ -8964,10 +9010,10 @@
         <v>234</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2">
@@ -8992,13 +9038,13 @@
         <v>234</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="I158" s="2">
         <v>1090811</v>
@@ -9116,19 +9162,19 @@
         <v>212</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I162" s="2">
         <v>1090906</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -9148,13 +9194,13 @@
         <v>212</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I163" s="2">
         <v>1090918</v>
@@ -9178,19 +9224,19 @@
         <v>212</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I164" s="2">
         <v>1090907</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -9210,19 +9256,19 @@
         <v>212</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I165" s="2">
         <v>1090927</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -9242,19 +9288,19 @@
         <v>212</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I166" s="2">
         <v>1090920</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -9274,10 +9320,10 @@
         <v>212</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2">
@@ -9302,19 +9348,19 @@
         <v>212</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I168" s="2">
         <v>1090928</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -9334,19 +9380,19 @@
         <v>212</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I169" s="2">
         <v>1090912</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -9366,13 +9412,13 @@
         <v>212</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I170" s="2">
         <v>1090902</v>
@@ -9396,19 +9442,19 @@
         <v>212</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I171" s="2">
         <v>1090901</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -9428,13 +9474,13 @@
         <v>212</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I172" s="2">
         <v>1090915</v>
@@ -9458,19 +9504,19 @@
         <v>212</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I173" s="2">
         <v>1090919</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -9490,10 +9536,10 @@
         <v>212</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2">
@@ -9518,19 +9564,19 @@
         <v>212</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I175" s="2">
         <v>1090916</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -9550,19 +9596,19 @@
         <v>212</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I176" s="2">
         <v>1090903</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -9582,19 +9628,19 @@
         <v>212</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I177" s="2">
         <v>1090921</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -9608,19 +9654,19 @@
         <v>6</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="H178" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="I178" s="2">
         <v>1090406</v>
@@ -9638,16 +9684,16 @@
         <v>6</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2">
@@ -9666,19 +9712,19 @@
         <v>6</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I180" s="2">
         <v>1090509</v>
@@ -9696,25 +9742,25 @@
         <v>6</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I181" s="2">
         <v>1090408</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -9728,16 +9774,16 @@
         <v>6</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2">
@@ -9756,19 +9802,19 @@
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I183" s="2">
         <v>1090409</v>
@@ -9786,19 +9832,19 @@
         <v>6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I184" s="2">
         <v>1090410</v>
@@ -9852,13 +9898,13 @@
         <v>274</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I186" s="2">
         <v>1091109</v>
@@ -9882,13 +9928,13 @@
         <v>274</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I187" s="2">
         <v>1091116</v>
@@ -9912,13 +9958,13 @@
         <v>274</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I188" s="2">
         <v>1091110</v>
@@ -9942,19 +9988,19 @@
         <v>274</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I189" s="2">
         <v>1091106</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -9974,13 +10020,13 @@
         <v>274</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I190" s="2">
         <v>1091111</v>
@@ -10004,13 +10050,13 @@
         <v>274</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I191" s="2">
         <v>1091112</v>
@@ -10034,13 +10080,13 @@
         <v>274</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I192" s="2">
         <v>1091107</v>
@@ -10072,7 +10118,7 @@
       <c r="H193" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I193" s="4" t="s">
+      <c r="I193" s="7" t="s">
         <v>154</v>
       </c>
       <c r="J193" s="4" t="s">
@@ -10104,7 +10150,7 @@
       <c r="H194" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I194" s="4" t="s">
+      <c r="I194" s="7" t="s">
         <v>159</v>
       </c>
       <c r="J194" s="4" t="s">
@@ -10136,7 +10182,7 @@
       <c r="H195" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I195" s="4" t="s">
+      <c r="I195" s="7" t="s">
         <v>164</v>
       </c>
       <c r="J195" s="4" t="s">
@@ -10168,7 +10214,7 @@
       <c r="H196" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I196" s="4" t="s">
+      <c r="I196" s="7" t="s">
         <v>169</v>
       </c>
       <c r="J196" s="4" t="s">
@@ -10200,7 +10246,7 @@
       <c r="H197" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I197" s="4" t="s">
+      <c r="I197" s="7" t="s">
         <v>174</v>
       </c>
       <c r="J197" s="4" t="s">
@@ -10218,23 +10264,23 @@
         <v>6</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2">
         <v>1091207</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -10248,25 +10294,25 @@
         <v>6</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I199" s="2">
         <v>1090107</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="18" x14ac:dyDescent="0.2">
@@ -10280,24 +10326,26 @@
         <v>6</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I200" s="2">
         <v>1090106</v>
       </c>
-      <c r="J200" s="2"/>
+      <c r="J200" s="2" t="s">
+        <v>546</v>
+      </c>
       <c r="K200" s="6"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -10311,25 +10359,25 @@
         <v>6</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>551</v>
+        <v>766</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I201" s="2">
         <v>1090113</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>549</v>
+        <v>765</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -10343,25 +10391,25 @@
         <v>6</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I202" s="2">
         <v>1090108</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -10375,25 +10423,25 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="I203" s="2">
         <v>1090109</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -10407,16 +10455,16 @@
         <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2">
@@ -10435,25 +10483,25 @@
         <v>6</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="I205" s="2">
         <v>1090100</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
@@ -10467,23 +10515,23 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H206" s="2"/>
       <c r="I206" s="2">
         <v>1091221</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -10492,294 +10540,304 @@
       <sortCondition ref="D1:D206"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="138" priority="137"/>
+  <conditionalFormatting sqref="F92">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="138" priority="139"/>
     <cfRule type="duplicateValues" dxfId="137" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="duplicateValues" dxfId="136" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="135"/>
+  <conditionalFormatting sqref="J42">
+    <cfRule type="duplicateValues" dxfId="136" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="136"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="duplicateValues" dxfId="134" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="133"/>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="duplicateValues" dxfId="134" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47:J48">
-    <cfRule type="duplicateValues" dxfId="132" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="131"/>
+  <conditionalFormatting sqref="J46:J47">
+    <cfRule type="duplicateValues" dxfId="132" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50:J51">
-    <cfRule type="duplicateValues" dxfId="130" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="129"/>
+  <conditionalFormatting sqref="J49:J50">
+    <cfRule type="duplicateValues" dxfId="130" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J54">
-    <cfRule type="duplicateValues" dxfId="128" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="127"/>
+  <conditionalFormatting sqref="J51:J53">
+    <cfRule type="duplicateValues" dxfId="128" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="126" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="125"/>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="duplicateValues" dxfId="126" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:J58">
-    <cfRule type="duplicateValues" dxfId="124" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="123"/>
+  <conditionalFormatting sqref="J56:J57">
+    <cfRule type="duplicateValues" dxfId="124" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="124"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="duplicateValues" dxfId="122" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="121"/>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="duplicateValues" dxfId="122" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J62">
-    <cfRule type="duplicateValues" dxfId="120" priority="119"/>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="duplicateValues" dxfId="120" priority="121"/>
     <cfRule type="duplicateValues" dxfId="119" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J64">
-    <cfRule type="duplicateValues" dxfId="118" priority="117"/>
+  <conditionalFormatting sqref="J62:J63">
+    <cfRule type="duplicateValues" dxfId="118" priority="119"/>
     <cfRule type="duplicateValues" dxfId="117" priority="118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="duplicateValues" dxfId="116" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="115"/>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="duplicateValues" dxfId="116" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68:J71">
-    <cfRule type="duplicateValues" dxfId="114" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="113"/>
+  <conditionalFormatting sqref="J67:J70">
+    <cfRule type="duplicateValues" dxfId="114" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73:J76">
-    <cfRule type="duplicateValues" dxfId="112" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="111"/>
+  <conditionalFormatting sqref="J72:J75">
+    <cfRule type="duplicateValues" dxfId="112" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="duplicateValues" dxfId="110" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="109"/>
+  <conditionalFormatting sqref="J76">
+    <cfRule type="duplicateValues" dxfId="110" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="duplicateValues" dxfId="108" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80">
-    <cfRule type="duplicateValues" dxfId="108" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
-    <cfRule type="duplicateValues" dxfId="106" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="109"/>
     <cfRule type="duplicateValues" dxfId="105" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J82:J83">
-    <cfRule type="duplicateValues" dxfId="104" priority="105"/>
+  <conditionalFormatting sqref="J81:J82">
+    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
     <cfRule type="duplicateValues" dxfId="103" priority="106"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="duplicateValues" dxfId="102" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="102"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J90">
-    <cfRule type="duplicateValues" dxfId="102" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="duplicateValues" dxfId="100" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92">
-    <cfRule type="duplicateValues" dxfId="98" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="duplicateValues" dxfId="96" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99">
-    <cfRule type="duplicateValues" dxfId="94" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J100:J101">
-    <cfRule type="duplicateValues" dxfId="92" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103">
-    <cfRule type="duplicateValues" dxfId="90" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="93"/>
     <cfRule type="duplicateValues" dxfId="89" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:J105 J107:J109">
-    <cfRule type="duplicateValues" dxfId="88" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113">
-    <cfRule type="duplicateValues" dxfId="87" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:J124">
-    <cfRule type="duplicateValues" dxfId="85" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="duplicateValues" dxfId="83" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:J129">
-    <cfRule type="duplicateValues" dxfId="81" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131">
-    <cfRule type="duplicateValues" dxfId="79" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J135">
-    <cfRule type="duplicateValues" dxfId="77" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136">
-    <cfRule type="duplicateValues" dxfId="75" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J139">
-    <cfRule type="duplicateValues" dxfId="71" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="75"/>
     <cfRule type="duplicateValues" dxfId="70" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule type="duplicateValues" dxfId="69" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142">
-    <cfRule type="duplicateValues" dxfId="67" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="71"/>
     <cfRule type="duplicateValues" dxfId="66" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143">
-    <cfRule type="duplicateValues" dxfId="65" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="duplicateValues" dxfId="63" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146:J147">
-    <cfRule type="duplicateValues" dxfId="61" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149:J150">
-    <cfRule type="duplicateValues" dxfId="59" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151">
-    <cfRule type="duplicateValues" dxfId="57" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153">
-    <cfRule type="duplicateValues" dxfId="55" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J154">
-    <cfRule type="duplicateValues" dxfId="53" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="duplicateValues" dxfId="51" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158">
-    <cfRule type="duplicateValues" dxfId="49" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J160">
-    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J161:J162">
-    <cfRule type="duplicateValues" dxfId="45" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J165">
-    <cfRule type="duplicateValues" dxfId="43" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J166">
-    <cfRule type="duplicateValues" dxfId="41" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J169">
-    <cfRule type="duplicateValues" dxfId="39" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J170:J171">
-    <cfRule type="duplicateValues" dxfId="37" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J174">
-    <cfRule type="duplicateValues" dxfId="35" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J175">
     <cfRule type="duplicateValues" dxfId="33" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J178">
-    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179">
-    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J182">
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J184">
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185">
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186">
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187">
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J192">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J193">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J194">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J197">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J198">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J199">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J200:J201">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J202">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J203">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J205">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J206">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
